--- a/Cypress notes.xlsx
+++ b/Cypress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\cypressAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045FD72C-A821-4F6E-A373-B7CCFB2831D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFFA17-FD53-4B73-B2D6-D465C41C5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B0DC8F9-F96A-4257-ABFF-25728A9A412A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>CSS selectors</t>
   </si>
@@ -62,6 +61,63 @@
   </si>
   <si>
     <t>input[type='search']</t>
+  </si>
+  <si>
+    <t>Cypress auto accepts alerts and pop ups</t>
+  </si>
+  <si>
+    <t>Cypress has capability to handle browser events like window:alert</t>
+  </si>
+  <si>
+    <t>you can fire this event through cypress  to get access to the alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nth child of an element </t>
+  </si>
+  <si>
+    <t>tr td:nth-child(2)</t>
+  </si>
+  <si>
+    <t>you can traverse to sibling with next() only works with get method</t>
+  </si>
+  <si>
+    <t>mouse hoverr events are not supported in cypress as alternative use jquery or force click</t>
+  </si>
+  <si>
+    <t>Building a framework best practices</t>
+  </si>
+  <si>
+    <t>Setting up test hooks</t>
+  </si>
+  <si>
+    <t>Data driven testing with fixtures</t>
+  </si>
+  <si>
+    <t>building custom commands</t>
+  </si>
+  <si>
+    <t>parameterize test with multiple data sets</t>
+  </si>
+  <si>
+    <t>understand debugging</t>
+  </si>
+  <si>
+    <t>build design patterns for objects</t>
+  </si>
+  <si>
+    <t>config changes in cypress.json file</t>
+  </si>
+  <si>
+    <t>screenshots and videos for test</t>
+  </si>
+  <si>
+    <t>cypress dashboard</t>
+  </si>
+  <si>
+    <t>environmental variables</t>
+  </si>
+  <si>
+    <t>Generate reports</t>
   </si>
 </sst>
 </file>
@@ -422,14 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D6870B-BCCC-4953-9EDE-235F6CF02829}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -446,6 +503,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -454,6 +514,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -462,6 +525,9 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -470,9 +536,85 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cypress notes.xlsx
+++ b/Cypress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\cypressAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFFA17-FD53-4B73-B2D6-D465C41C5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510EDD2-A0C8-4E6C-9575-608F55ECCE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B0DC8F9-F96A-4257-ABFF-25728A9A412A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>CSS selectors</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Generate reports</t>
+  </si>
+  <si>
+    <t>Command line for cypress</t>
+  </si>
+  <si>
+    <t>npx cypress run --spec cypress/integration/examples/test9.js --headed --record --key 06499df6-3ffe-4a1d-872f-f3aa072ec3b4</t>
+  </si>
+  <si>
+    <t>Run for cypress cloud and a specific test case in the spec and headed mode</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D6870B-BCCC-4953-9EDE-235F6CF02829}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,39 +590,54 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
